--- a/gams/matchingRAData_pricePos_Q18.xlsx
+++ b/gams/matchingRAData_pricePos_Q18.xlsx
@@ -488,7 +488,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>q1</t>
+          <t>q0</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -521,7 +521,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>q2</t>
+          <t>q1</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -556,7 +556,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>q3</t>
+          <t>q2</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -583,7 +583,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>q4</t>
+          <t>q3</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -620,7 +620,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>q5</t>
+          <t>q4</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>q6</t>
+          <t>q5</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -692,7 +692,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>q7</t>
+          <t>q6</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -725,7 +725,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>q8</t>
+          <t>q7</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -762,7 +762,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>q9</t>
+          <t>q8</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -797,7 +797,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>q10</t>
+          <t>q9</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -832,7 +832,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>q11</t>
+          <t>q10</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -863,7 +863,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>q12</t>
+          <t>q11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
@@ -898,7 +898,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>q13</t>
+          <t>q12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
@@ -933,7 +933,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>q14</t>
+          <t>q13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
@@ -966,7 +966,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>q15</t>
+          <t>q14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
@@ -995,7 +995,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>q16</t>
+          <t>q15</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1030,7 +1030,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>q17</t>
+          <t>q16</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1063,7 +1063,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>q18</t>
+          <t>q17</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1094,7 +1094,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>q19</t>
+          <t>q18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr"/>
@@ -1123,7 +1123,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>q20</t>
+          <t>q19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
@@ -1150,7 +1150,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>q21</t>
+          <t>q20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>q22</t>
+          <t>q21</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1206,7 +1206,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>q23</t>
+          <t>q22</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1237,7 +1237,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>q24</t>
+          <t>q23</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1266,7 +1266,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>q25</t>
+          <t>q24</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -1293,7 +1293,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>q26</t>
+          <t>q25</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -1322,7 +1322,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>q27</t>
+          <t>q26</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1355,7 +1355,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>q28</t>
+          <t>q27</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -1390,7 +1390,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>q29</t>
+          <t>q28</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1427,7 +1427,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>q30</t>
+          <t>q29</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -1462,7 +1462,7 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>q31</t>
+          <t>q30</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1499,7 +1499,7 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>q32</t>
+          <t>q31</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1534,7 +1534,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>q33</t>
+          <t>q32</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1571,7 +1571,7 @@
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>q34</t>
+          <t>q33</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1600,7 +1600,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>q35</t>
+          <t>q34</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1625,7 +1625,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>q36</t>
+          <t>q35</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1658,7 +1658,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>q37</t>
+          <t>q36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr"/>
@@ -1687,7 +1687,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>q38</t>
+          <t>q37</t>
         </is>
       </c>
       <c r="B39" t="inlineStr"/>
@@ -1712,7 +1712,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>q39</t>
+          <t>q38</t>
         </is>
       </c>
       <c r="B40" t="inlineStr"/>
@@ -1735,7 +1735,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>q40</t>
+          <t>q39</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1764,7 +1764,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>q41</t>
+          <t>q40</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1791,7 +1791,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>q42</t>
+          <t>q41</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1816,7 +1816,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>q43</t>
+          <t>q42</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -1835,7 +1835,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>q44</t>
+          <t>q43</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -1866,7 +1866,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>q45</t>
+          <t>q44</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -1895,7 +1895,7 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>q46</t>
+          <t>q45</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -1924,7 +1924,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>q47</t>
+          <t>q46</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -1951,7 +1951,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>q48</t>
+          <t>q47</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>q49</t>
+          <t>q48</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -2007,7 +2007,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>q50</t>
+          <t>q49</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>q51</t>
+          <t>q50</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -2059,7 +2059,7 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>q52</t>
+          <t>q51</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -2088,7 +2088,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>q53</t>
+          <t>q52</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -2117,7 +2117,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>q54</t>
+          <t>q53</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -2144,7 +2144,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>q55</t>
+          <t>q54</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -2175,7 +2175,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>q56</t>
+          <t>q55</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -2198,7 +2198,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>q57</t>
+          <t>q56</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -2231,7 +2231,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>q58</t>
+          <t>q57</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -2266,7 +2266,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>q59</t>
+          <t>q58</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -2301,7 +2301,7 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>q60</t>
+          <t>q59</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -2336,7 +2336,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>q61</t>
+          <t>q60</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -2369,7 +2369,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>q62</t>
+          <t>q61</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -2404,7 +2404,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>q63</t>
+          <t>q62</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -2441,7 +2441,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>q64</t>
+          <t>q63</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -2476,7 +2476,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>q65</t>
+          <t>q64</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -2513,7 +2513,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>q66</t>
+          <t>q65</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -2550,7 +2550,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>q67</t>
+          <t>q66</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -2587,7 +2587,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>q68</t>
+          <t>q67</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -2622,7 +2622,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>q69</t>
+          <t>q68</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -2657,7 +2657,7 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>q70</t>
+          <t>q69</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -2692,7 +2692,7 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>q71</t>
+          <t>q70</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -2727,7 +2727,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>q72</t>
+          <t>q71</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -2760,7 +2760,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>q73</t>
+          <t>q72</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -2795,7 +2795,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>q74</t>
+          <t>q73</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -2832,7 +2832,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>q75</t>
+          <t>q74</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -2865,7 +2865,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>q76</t>
+          <t>q75</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -2900,7 +2900,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>q77</t>
+          <t>q76</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -2935,7 +2935,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>q78</t>
+          <t>q77</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -2968,7 +2968,7 @@
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>q79</t>
+          <t>q78</t>
         </is>
       </c>
       <c r="B80" t="inlineStr"/>
@@ -2999,7 +2999,7 @@
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>q80</t>
+          <t>q79</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -3036,7 +3036,7 @@
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>q81</t>
+          <t>q80</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -3073,7 +3073,7 @@
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>q82</t>
+          <t>q81</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -3104,7 +3104,7 @@
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>q83</t>
+          <t>q82</t>
         </is>
       </c>
       <c r="B84" t="inlineStr"/>
@@ -3131,7 +3131,7 @@
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>q84</t>
+          <t>q83</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -3168,7 +3168,7 @@
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>q85</t>
+          <t>q84</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -3205,7 +3205,7 @@
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>q86</t>
+          <t>q85</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -3238,7 +3238,7 @@
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>q87</t>
+          <t>q86</t>
         </is>
       </c>
       <c r="B88" t="inlineStr"/>
@@ -3267,7 +3267,7 @@
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>q88</t>
+          <t>q87</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -3304,7 +3304,7 @@
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>q89</t>
+          <t>q88</t>
         </is>
       </c>
       <c r="B90" t="inlineStr"/>
@@ -3337,7 +3337,7 @@
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>q90</t>
+          <t>q89</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
@@ -3366,7 +3366,7 @@
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>q91</t>
+          <t>q90</t>
         </is>
       </c>
       <c r="B92" t="inlineStr"/>
@@ -3391,7 +3391,7 @@
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>q92</t>
+          <t>q91</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -3424,7 +3424,7 @@
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>q93</t>
+          <t>q92</t>
         </is>
       </c>
       <c r="B94" t="inlineStr"/>
@@ -3455,7 +3455,7 @@
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>q94</t>
+          <t>q93</t>
         </is>
       </c>
       <c r="B95" t="inlineStr"/>
@@ -3486,7 +3486,7 @@
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>q95</t>
+          <t>q94</t>
         </is>
       </c>
       <c r="B96" t="inlineStr"/>
@@ -3509,7 +3509,7 @@
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>q96</t>
+          <t>q95</t>
         </is>
       </c>
       <c r="B97" t="n">
